--- a/BackTest/2019-11-20 BackTest LBA.xlsx
+++ b/BackTest/2019-11-20 BackTest LBA.xlsx
@@ -3951,14 +3951,20 @@
         <v>29</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +3992,20 @@
         <v>29.25</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.4</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4040,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +4072,20 @@
         <v>29.09999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +4113,20 @@
         <v>28.99999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +4154,20 @@
         <v>28.84999999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4202,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4241,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4280,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4319,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4358,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4397,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4436,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4475,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4514,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4553,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4592,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4631,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4670,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4709,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4748,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4787,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4826,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4865,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +4904,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +4943,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +4982,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5021,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5060,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5099,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5138,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5177,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5216,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5255,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5294,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5333,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5372,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5411,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5450,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5489,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5528,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5567,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5606,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5645,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5684,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5723,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5762,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5801,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5840,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5879,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5918,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5957,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5996,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6035,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6074,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6113,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6152,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5946,18 +6184,16 @@
         <v>28.89999999999998</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -5987,14 +6223,12 @@
         <v>28.89999999999998</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6028,14 +6262,12 @@
         <v>28.79999999999998</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6069,14 +6301,12 @@
         <v>28.79999999999998</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6110,14 +6340,12 @@
         <v>28.79999999999998</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6151,14 +6379,12 @@
         <v>28.69999999999998</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6192,14 +6418,12 @@
         <v>28.79999999999998</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6233,14 +6457,12 @@
         <v>28.89999999999997</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6274,14 +6496,12 @@
         <v>28.79999999999997</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>29</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6315,14 +6535,12 @@
         <v>28.69999999999997</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6356,14 +6574,12 @@
         <v>28.69999999999997</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6397,14 +6613,12 @@
         <v>28.69999999999997</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6438,14 +6652,12 @@
         <v>28.74999999999996</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6479,14 +6691,12 @@
         <v>28.49999999999996</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6520,14 +6730,12 @@
         <v>28.34999999999997</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6561,14 +6769,12 @@
         <v>28.64999999999996</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>29</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6602,14 +6808,12 @@
         <v>28.89999999999996</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>29</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6643,14 +6847,12 @@
         <v>28.99999999999996</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>29</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6684,14 +6886,12 @@
         <v>29.09999999999997</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6725,14 +6925,12 @@
         <v>29.29999999999997</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6766,14 +6964,12 @@
         <v>29.39999999999997</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6807,14 +7003,12 @@
         <v>29.44999999999997</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6848,14 +7042,12 @@
         <v>29.54999999999997</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -6889,14 +7081,12 @@
         <v>29.59999999999997</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -9546,18 +9736,16 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9585,15 +9773,11 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9628,11 +9812,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9663,15 +9843,11 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9702,15 +9878,11 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9741,16 +9913,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9778,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9813,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9848,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -14430,17 +14600,13 @@
         <v>28.99999999999993</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>29</v>
-      </c>
-      <c r="K389" t="n">
-        <v>29</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
@@ -14469,22 +14635,14 @@
         <v>29.09999999999993</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>29</v>
-      </c>
-      <c r="K390" t="n">
-        <v>29</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14512,22 +14670,14 @@
         <v>29.14999999999993</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K391" t="n">
-        <v>29</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14555,22 +14705,14 @@
         <v>29.04999999999993</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K392" t="n">
-        <v>29</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14598,22 +14740,14 @@
         <v>28.99999999999993</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K393" t="n">
-        <v>29</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14641,22 +14775,14 @@
         <v>29.19999999999993</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>29</v>
-      </c>
-      <c r="K394" t="n">
-        <v>29</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14684,22 +14810,14 @@
         <v>29.29999999999993</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K395" t="n">
-        <v>29</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14727,22 +14845,14 @@
         <v>29.19999999999994</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K396" t="n">
-        <v>29</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14770,22 +14880,14 @@
         <v>29.14999999999993</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K397" t="n">
-        <v>29</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14813,22 +14915,14 @@
         <v>29.14999999999993</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K398" t="n">
-        <v>29</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14856,22 +14950,14 @@
         <v>29.14999999999993</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K399" t="n">
-        <v>29</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14899,22 +14985,14 @@
         <v>29.04999999999993</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>29</v>
-      </c>
-      <c r="K400" t="n">
-        <v>29</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14942,22 +15020,14 @@
         <v>29.09999999999993</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K401" t="n">
-        <v>29</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14985,22 +15055,14 @@
         <v>29.29999999999993</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K402" t="n">
-        <v>29</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15028,22 +15090,14 @@
         <v>29.39999999999993</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K403" t="n">
-        <v>29</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15071,22 +15125,14 @@
         <v>29.49999999999993</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K404" t="n">
-        <v>29</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15114,22 +15160,14 @@
         <v>29.64999999999993</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K405" t="n">
-        <v>29</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15163,14 +15201,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>29</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15204,14 +15236,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>29</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15245,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>29</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15286,14 +15306,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>29</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15327,14 +15341,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>29</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15368,14 +15376,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>29</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15409,14 +15411,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>29</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15450,14 +15446,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>29</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15491,14 +15481,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>29</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15532,14 +15516,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>29</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15573,14 +15551,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>29</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15614,14 +15586,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>29</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15655,14 +15621,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>29</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15696,14 +15656,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>29</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15734,17 +15688,11 @@
         <v>0</v>
       </c>
       <c r="I420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>29</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15778,14 +15726,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>29</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15819,14 +15761,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>29</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15860,14 +15796,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>29</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15901,14 +15831,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>29</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15939,19 +15863,13 @@
         <v>0</v>
       </c>
       <c r="I425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>29</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
-        <v>1.039827586206897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -15980,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
@@ -16575,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
@@ -16610,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
@@ -16750,7 +16668,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
@@ -16785,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
@@ -16820,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
@@ -16855,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest LBA.xlsx
+++ b/BackTest/2019-11-20 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2629,7 +2629,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-327580.6681455</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>701571.1798429315</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>523531.7823429315</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>518194.0183429315</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>671735.6948429315</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>906265.2188917267</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1091354.389684848</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1318174.124688359</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1034279.88108836</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>637053.9177883596</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>384739.5078883596</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>298594.2110883596</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>64119.16208835959</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-12591.58171164041</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-140041.7725521831</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-162621.0939286162</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-435136.7698286162</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-531576.0037286162</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-432499.6061286161</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-559884.2399286161</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-772751.448228616</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-868911.3584286161</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-860144.8753286161</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1280964.877228616</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1651726.717628616</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1831918.755128616</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1915769.905828616</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1915670.905828616</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1961164.512928616</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2057261.634328616</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2191630.637028616</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2173576.065028616</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2170333.557228616</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7711,11 +7711,17 @@
         <v>-2947604.439228616</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,15 +7750,17 @@
         <v>-2947604.439228616</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>28.7</v>
       </c>
-      <c r="J223" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,17 +7789,15 @@
         <v>-2873918.879828616</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>28.7</v>
       </c>
-      <c r="J224" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7822,14 +7828,12 @@
         <v>-2873918.879828616</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>28.9</v>
       </c>
-      <c r="J225" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,14 +7867,12 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>28.9</v>
       </c>
-      <c r="J226" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,14 +7906,12 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>28.7</v>
       </c>
-      <c r="J227" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7945,14 +7945,12 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>28.7</v>
       </c>
-      <c r="J228" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7986,14 +7984,12 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>28.7</v>
       </c>
-      <c r="J229" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8027,14 +8023,12 @@
         <v>-2855405.953928616</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>28.7</v>
       </c>
-      <c r="J230" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8068,14 +8062,12 @@
         <v>-3198665.226128616</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>28.8</v>
       </c>
-      <c r="J231" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,14 +8101,10 @@
         <v>-3187584.151228616</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8150,14 +8138,12 @@
         <v>-3186736.728028616</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>28.5</v>
       </c>
-      <c r="J233" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,14 +8177,12 @@
         <v>-3186706.728028616</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>28.8</v>
       </c>
-      <c r="J234" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,12 +8216,12 @@
         <v>-3186706.728028616</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>29</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,14 +8255,12 @@
         <v>-3186161.251128616</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>29</v>
       </c>
-      <c r="J236" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,14 +8294,12 @@
         <v>-3182112.925528616</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>29.2</v>
       </c>
-      <c r="J237" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,14 +8333,12 @@
         <v>-3182112.925528616</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>29.4</v>
       </c>
-      <c r="J238" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8394,14 +8372,12 @@
         <v>-3170308.741228616</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>29.4</v>
       </c>
-      <c r="J239" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8435,14 +8411,12 @@
         <v>-3127440.044728616</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>29.5</v>
       </c>
-      <c r="J240" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8479,9 +8453,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8515,14 +8487,10 @@
         <v>-3159275.810028616</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J242" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,14 +8524,12 @@
         <v>-3266140.168328616</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>29.5</v>
       </c>
-      <c r="J243" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8597,14 +8563,12 @@
         <v>-3245874.059528616</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>29</v>
       </c>
-      <c r="J244" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,14 +8602,12 @@
         <v>-3175290.771428616</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>29.7</v>
       </c>
-      <c r="J245" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8679,14 +8641,10 @@
         <v>-3197960.771428616</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J246" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8720,14 +8678,12 @@
         <v>-2922813.559928616</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>29.8</v>
       </c>
-      <c r="J247" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8761,14 +8717,10 @@
         <v>-2922813.559928616</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J248" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8802,14 +8754,10 @@
         <v>-2945747.250228615</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J249" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8846,9 +8794,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8885,9 +8831,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,12 +8865,12 @@
         <v>-3028342.252728615</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,12 +8904,12 @@
         <v>-3054800.595428615</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8999,12 +8943,12 @@
         <v>-3054800.595428615</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,12 +8982,12 @@
         <v>-3110582.989428615</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9077,12 +9021,12 @@
         <v>-3110582.989428615</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,12 +9060,12 @@
         <v>-3110517.989428615</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,12 +9099,12 @@
         <v>-3085591.521228615</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,12 +9138,12 @@
         <v>-3085591.521228615</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,12 +9177,12 @@
         <v>-3085711.259828615</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9272,12 +9216,12 @@
         <v>-3084626.969328615</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,12 +9255,12 @@
         <v>-3084575.797928615</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,9 +9297,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9392,9 +9334,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9428,14 +9368,10 @@
         <v>-3088397.822828615</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J265" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9469,14 +9405,12 @@
         <v>-3088397.822828615</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>29.5</v>
       </c>
-      <c r="J266" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,12 +9444,12 @@
         <v>-3139633.313228615</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,12 +9483,12 @@
         <v>-3139633.313228615</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,12 +9522,12 @@
         <v>-3139561.971728615</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,12 +9561,12 @@
         <v>-3141624.508628615</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9666,12 +9600,12 @@
         <v>-3141624.508628615</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,12 +9639,12 @@
         <v>-3141624.508628615</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,9 +9681,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9783,12 +9715,12 @@
         <v>-3109501.345728615</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,12 +9754,12 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9861,12 +9793,12 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,12 +9832,12 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9939,14 +9871,12 @@
         <v>-3299174.053528615</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>29.5</v>
       </c>
-      <c r="J278" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,9 +9913,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10022,9 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10058,14 +9984,10 @@
         <v>-3306462.858328615</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J281" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,9 +10024,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,9 +10061,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,9 +10098,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,9 +10135,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10255,12 +10169,12 @@
         <v>-3306208.685128615</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10294,12 +10208,12 @@
         <v>-3306208.685128615</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,9 +10250,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,9 +10287,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10414,9 +10324,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,9 +10361,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,9 +10398,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,9 +10435,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,9 +10472,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,9 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,9 +10546,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10687,9 +10583,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,9 +10620,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,9 +10657,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10804,9 +10694,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,9 +10731,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10882,9 +10768,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10918,14 +10802,10 @@
         <v>-3391005.514128616</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J303" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10962,9 +10842,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11001,9 +10879,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11040,9 +10916,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11079,9 +10953,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11118,9 +10990,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11157,9 +11027,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11196,9 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11235,9 +11101,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11274,9 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,9 +11175,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,9 +11212,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,9 +11249,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,9 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11469,9 +11323,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,9 +11360,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11547,9 +11397,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,9 +11434,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11625,9 +11471,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,9 +11508,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11703,9 +11545,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,9 +11582,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,9 +11619,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,9 +11656,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,9 +11693,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11898,9 +11730,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,9 +11767,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11976,9 +11804,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12015,9 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12054,9 +11878,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12093,9 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12132,9 +11952,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12171,9 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12210,9 +12026,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12249,9 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12288,9 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12327,9 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12366,9 +12174,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12405,9 +12211,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12444,9 +12248,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12483,9 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12522,9 +12322,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12561,9 +12359,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12600,9 +12396,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12639,9 +12433,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12678,9 +12470,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12717,9 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12756,9 +12544,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,9 +12581,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,9 +12618,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12873,9 +12655,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12912,9 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12951,9 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12990,9 +12766,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13029,9 +12803,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13068,9 +12840,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13107,9 +12877,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,9 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,9 +12951,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13224,9 +12988,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,9 +13025,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13302,9 +13062,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13341,9 +13099,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13380,9 +13136,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13419,9 +13173,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,9 +13210,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,9 +13247,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13536,9 +13284,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13575,9 +13321,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13614,9 +13358,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13653,9 +13395,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13692,9 +13432,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13731,9 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13770,9 +13506,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13809,9 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13848,9 +13580,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13887,9 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13926,9 +13654,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13965,9 +13691,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14004,9 +13728,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14040,14 +13762,10 @@
         <v>-2954900.508459907</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J383" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14084,9 +13802,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14123,9 +13839,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14162,9 +13876,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14198,14 +13910,10 @@
         <v>-2997010.900559906</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J387" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14239,14 +13947,10 @@
         <v>-2996207.460559906</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J388" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14280,14 +13984,10 @@
         <v>-3067565.856259907</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>30</v>
-      </c>
-      <c r="J389" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14321,14 +14021,10 @@
         <v>-3046964.282559907</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J390" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14362,14 +14058,10 @@
         <v>-3051454.711559907</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>30</v>
-      </c>
-      <c r="J391" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14403,14 +14095,10 @@
         <v>-3072707.529659906</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J392" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14444,14 +14132,10 @@
         <v>-3138897.278059906</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J393" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14485,14 +14169,12 @@
         <v>-3138897.278059906</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>29.2</v>
       </c>
-      <c r="J394" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14526,14 +14208,12 @@
         <v>-3148735.238359906</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>29.2</v>
       </c>
-      <c r="J395" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14567,14 +14247,12 @@
         <v>-3171279.390959906</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>29.1</v>
       </c>
-      <c r="J396" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14608,14 +14286,12 @@
         <v>-3280024.276459906</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>29</v>
       </c>
-      <c r="J397" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14649,14 +14325,12 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>28.9</v>
       </c>
-      <c r="J398" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14690,14 +14364,12 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>29.1</v>
       </c>
-      <c r="J399" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14731,14 +14403,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>29.1</v>
       </c>
-      <c r="J400" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14772,14 +14442,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>29.3</v>
       </c>
-      <c r="J401" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14813,14 +14481,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>29.3</v>
       </c>
-      <c r="J402" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14854,14 +14520,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>29.3</v>
       </c>
-      <c r="J403" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,12 +14559,12 @@
         <v>-3228919.229859906</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,12 +14598,12 @@
         <v>-3228919.229859906</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,12 +14637,12 @@
         <v>-3228919.229859906</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15015,9 +14679,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,9 +14716,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,12 +14750,12 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,14 +14789,12 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>29.2</v>
       </c>
-      <c r="J410" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15170,14 +14828,12 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>29.2</v>
       </c>
-      <c r="J411" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15211,14 +14867,12 @@
         <v>-3262457.591359906</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>29.2</v>
       </c>
-      <c r="J412" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15252,14 +14906,12 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>29.1</v>
       </c>
-      <c r="J413" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15293,14 +14945,12 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>29.2</v>
       </c>
-      <c r="J414" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15334,14 +14984,12 @@
         <v>-3223926.616059906</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>29.2</v>
       </c>
-      <c r="J415" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15375,14 +15023,12 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>29.3</v>
       </c>
-      <c r="J416" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15416,14 +15062,12 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>29.1</v>
       </c>
-      <c r="J417" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15457,12 +15101,12 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15496,12 +15140,12 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,12 +15179,12 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15574,12 +15218,12 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15616,9 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15655,9 +15297,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15694,9 +15334,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15733,9 +15371,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15772,9 +15408,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15811,9 +15445,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15850,9 +15482,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15889,9 +15519,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15928,9 +15556,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15967,9 +15593,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16006,9 +15630,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16042,12 +15664,12 @@
         <v>-3304518.755859907</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,12 +15703,12 @@
         <v>-3303932.755859907</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,12 +15742,12 @@
         <v>-3305005.942059907</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,12 +15781,12 @@
         <v>-3300005.942059907</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,12 +15820,12 @@
         <v>-3300005.942059907</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16240,9 +15862,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16276,12 +15896,12 @@
         <v>-3306846.347659907</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16315,12 +15935,12 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16354,12 +15974,12 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16393,12 +16013,12 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,14 +16052,12 @@
         <v>-3307802.287759907</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>29.3</v>
       </c>
-      <c r="J443" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16473,14 +16091,12 @@
         <v>-3320739.795759907</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>29.2</v>
       </c>
-      <c r="J444" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16514,14 +16130,12 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>29.1</v>
       </c>
-      <c r="J445" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16555,14 +16169,12 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>29</v>
       </c>
-      <c r="J446" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16596,14 +16208,12 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>29</v>
       </c>
-      <c r="J447" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16637,14 +16247,12 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>29</v>
       </c>
-      <c r="J448" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16678,14 +16286,12 @@
         <v>-3401345.067259907</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>29</v>
       </c>
-      <c r="J449" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16719,14 +16325,12 @@
         <v>-3402940.641159907</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>29.2</v>
       </c>
-      <c r="J450" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16760,14 +16364,12 @@
         <v>-3405374.293459907</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>29.1</v>
       </c>
-      <c r="J451" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16801,14 +16403,12 @@
         <v>-3405374.293459907</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>29</v>
       </c>
-      <c r="J452" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16842,14 +16442,12 @@
         <v>-3228470.078059907</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>29</v>
       </c>
-      <c r="J453" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16883,14 +16481,12 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>29.4</v>
       </c>
-      <c r="J454" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16924,14 +16520,12 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>29.2</v>
       </c>
-      <c r="J455" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16965,14 +16559,12 @@
         <v>-3241363.237659907</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>29.2</v>
       </c>
-      <c r="J456" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17006,14 +16598,12 @@
         <v>-3241345.237659907</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>29.1</v>
       </c>
-      <c r="J457" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17047,14 +16637,12 @@
         <v>-3242401.062659907</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>29.2</v>
       </c>
-      <c r="J458" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17088,14 +16676,12 @@
         <v>-3242753.805459907</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>29.1</v>
       </c>
-      <c r="J459" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17129,14 +16715,12 @@
         <v>-3241381.232959908</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>29</v>
       </c>
-      <c r="J460" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17170,14 +16754,12 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>29.2</v>
       </c>
-      <c r="J461" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17211,14 +16793,12 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>29.4</v>
       </c>
-      <c r="J462" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17252,14 +16832,12 @@
         <v>-3212678.232959908</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>29.4</v>
       </c>
-      <c r="J463" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17293,14 +16871,12 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>29.6</v>
       </c>
-      <c r="J464" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17334,14 +16910,12 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>29.7</v>
       </c>
-      <c r="J465" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17375,14 +16949,12 @@
         <v>-3018759.139359908</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>29.7</v>
       </c>
-      <c r="J466" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17416,14 +16988,12 @@
         <v>-3130986.425259908</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>30</v>
       </c>
-      <c r="J467" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17457,14 +17027,10 @@
         <v>-3123226.464359908</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J468" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17498,14 +17064,10 @@
         <v>-3064994.537459908</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J469" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17539,14 +17101,10 @@
         <v>-2894983.742359908</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>30</v>
-      </c>
-      <c r="J470" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17580,14 +17138,10 @@
         <v>-2907871.897859908</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J471" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17624,9 +17178,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17663,9 +17215,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17702,9 +17252,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17741,9 +17289,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17780,9 +17326,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17819,9 +17363,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17858,9 +17400,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17897,9 +17437,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17936,9 +17474,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17975,9 +17511,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18014,9 +17548,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18053,9 +17585,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18092,9 +17622,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18131,9 +17659,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18170,9 +17696,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18209,9 +17733,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18248,9 +17770,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18287,9 +17807,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18326,9 +17844,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18365,9 +17881,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18404,9 +17918,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18443,9 +17955,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18482,9 +17992,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18521,9 +18029,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18560,9 +18066,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18599,9 +18103,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18638,9 +18140,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18677,9 +18177,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18716,9 +18214,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18755,9 +18251,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18794,9 +18288,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18833,9 +18325,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18872,9 +18362,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18911,9 +18399,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18950,9 +18436,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18989,9 +18473,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19028,9 +18510,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19067,9 +18547,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19106,9 +18584,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19145,9 +18621,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19184,9 +18658,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19223,9 +18695,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19262,9 +18732,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19301,9 +18769,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19340,9 +18806,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19379,9 +18843,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19418,9 +18880,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19457,9 +18917,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19496,9 +18954,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19535,9 +18991,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19571,12 +19025,12 @@
         <v>-3685878.205891802</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19610,12 +19064,12 @@
         <v>-3684712.639091802</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19649,12 +19103,12 @@
         <v>-3700478.865891802</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19691,9 +19145,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19730,9 +19182,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19769,9 +19219,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19808,9 +19256,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19847,9 +19293,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19886,9 +19330,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19925,9 +19367,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19961,12 +19401,12 @@
         <v>-4011911.697491801</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20000,12 +19440,12 @@
         <v>-4013809.910291801</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20039,12 +19479,12 @@
         <v>-4013497.258591801</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20078,12 +19518,12 @@
         <v>-4213497.506091801</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20117,12 +19557,12 @@
         <v>-4196529.637991802</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20156,12 +19596,12 @@
         <v>-4239844.533991802</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20195,12 +19635,12 @@
         <v>-4162191.476691802</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20234,12 +19674,12 @@
         <v>-4172438.147091802</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20273,12 +19713,12 @@
         <v>-4156804.599391802</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20312,12 +19752,12 @@
         <v>-4156849.775091802</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20354,9 +19794,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20390,12 +19828,12 @@
         <v>-4161805.191491802</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20429,12 +19867,12 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20468,12 +19906,12 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20507,12 +19945,12 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20546,12 +19984,12 @@
         <v>-4188621.132891802</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20585,12 +20023,12 @@
         <v>-4182040.581591802</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20627,9 +20065,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20666,9 +20102,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20705,9 +20139,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20744,9 +20176,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20783,9 +20213,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20822,9 +20250,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20861,9 +20287,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20900,9 +20324,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20939,9 +20361,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20975,12 +20395,12 @@
         <v>-4199472.889591802</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21014,12 +20434,12 @@
         <v>-4145245.493991802</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21053,12 +20473,12 @@
         <v>-4144071.143491802</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21095,9 +20515,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21134,9 +20552,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21173,9 +20589,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21212,9 +20626,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21248,12 +20660,12 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21287,12 +20699,12 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21326,12 +20738,12 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21365,12 +20777,12 @@
         <v>-4208392.138891802</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21404,12 +20816,12 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21446,9 +20858,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21485,9 +20895,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21524,9 +20932,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21563,9 +20969,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21602,9 +21006,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21641,9 +21043,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21680,9 +21080,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21719,9 +21117,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21758,9 +21154,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21797,9 +21191,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21836,9 +21228,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21875,9 +21265,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21914,9 +21302,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21953,9 +21339,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21989,12 +21373,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22028,12 +21412,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22067,12 +21451,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22106,12 +21490,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22145,12 +21529,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22184,12 +21568,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22223,12 +21607,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22262,12 +21646,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22301,12 +21685,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22343,9 +21727,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22382,9 +21764,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22421,9 +21801,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22460,9 +21838,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22499,9 +21875,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22538,9 +21912,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22577,9 +21949,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22616,9 +21986,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22655,9 +22023,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22694,9 +22060,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22733,9 +22097,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22772,9 +22134,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22811,9 +22171,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22850,9 +22208,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22889,9 +22245,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22928,9 +22282,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22967,9 +22319,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23006,9 +22356,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23020,6 +22368,6 @@
       <c r="M610" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest LBA.xlsx
+++ b/BackTest/2019-11-20 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-65142.18481346047</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-193374.1421134605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-191750.8042134604</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-190351.2965134604</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-237719.3177134604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-248131.0506134604</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-225937.0105134604</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-214618.2318134604</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-223121.6355134604</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-213123.3086002771</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-215561.7009002772</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-231989.3961002771</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-183881.8295002771</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-176840.1955002772</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-178955.4505002772</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1199.236700277164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1058.190099722836</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-123397.0777002772</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-88469.37450027716</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-79863.93050027716</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-17383.79560027716</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-208638.0207002772</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-208339.6598002772</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-169427.0498002772</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-155650.5527002772</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-184390.0654002771</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-150961.8066002772</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-168853.5950002772</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>135193.2479997228</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2532.123200277158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4173.623099722842</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-92070.73460027715</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-91305.60500027715</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-89792.34963403511</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-109792.3496340351</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-87812.7033340351</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-99556.3715340351</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-352493.8713340351</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-385219.0783455</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-386410.3584455</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-381393.4494455</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-384576.6517455</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-383076.6517455</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-327580.6681455</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-366200.0372455</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>701571.1798429315</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>523531.7823429315</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>518194.0183429315</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>906265.2188917267</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>637053.9177883596</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>384739.5078883596</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>298594.2110883596</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>64119.16208835959</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-12591.58171164041</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-140041.7725521831</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-559884.2399286161</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-772751.448228616</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-860144.8753286161</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1280964.877228616</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1651726.717628616</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1831918.755128616</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1915769.905828616</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1915670.905828616</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1961164.512928616</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2057261.634328616</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2191630.637028616</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2173576.065028616</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -7711,17 +7711,11 @@
         <v>-2947604.439228616</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7750,17 +7744,11 @@
         <v>-2947604.439228616</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7789,17 +7777,11 @@
         <v>-2873918.879828616</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,17 +7810,11 @@
         <v>-2873918.879828616</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7867,17 +7843,11 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7906,17 +7876,11 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7945,17 +7909,11 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7984,17 +7942,11 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8023,17 +7975,11 @@
         <v>-2855405.953928616</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8062,17 +8008,11 @@
         <v>-3198665.226128616</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8105,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8138,17 +8074,11 @@
         <v>-3186736.728028616</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8177,17 +8107,11 @@
         <v>-3186706.728028616</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8216,17 +8140,11 @@
         <v>-3186706.728028616</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8255,17 +8173,11 @@
         <v>-3186161.251128616</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8294,17 +8206,11 @@
         <v>-3182112.925528616</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8333,17 +8239,11 @@
         <v>-3182112.925528616</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8372,17 +8272,11 @@
         <v>-3170308.741228616</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8411,17 +8305,11 @@
         <v>-3127440.044728616</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8454,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8491,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8524,17 +8404,11 @@
         <v>-3266140.168328616</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8563,17 +8437,11 @@
         <v>-3245874.059528616</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8602,17 +8470,11 @@
         <v>-3175290.771428616</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8678,17 +8536,11 @@
         <v>-2922813.559928616</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8865,17 +8701,11 @@
         <v>-3028342.252728615</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8904,17 +8734,11 @@
         <v>-3054800.595428615</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8943,17 +8767,11 @@
         <v>-3054800.595428615</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8982,17 +8800,11 @@
         <v>-3110582.989428615</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9021,17 +8833,11 @@
         <v>-3110582.989428615</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9060,17 +8866,11 @@
         <v>-3110517.989428615</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9099,17 +8899,11 @@
         <v>-3085591.521228615</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9138,17 +8932,11 @@
         <v>-3085591.521228615</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9177,17 +8965,11 @@
         <v>-3085711.259828615</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9216,17 +8998,11 @@
         <v>-3084626.969328615</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9255,17 +9031,11 @@
         <v>-3084575.797928615</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9335,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9372,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9405,17 +9163,11 @@
         <v>-3088397.822828615</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9444,17 +9196,11 @@
         <v>-3139633.313228615</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9483,17 +9229,11 @@
         <v>-3139633.313228615</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9522,17 +9262,11 @@
         <v>-3139561.971728615</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9561,17 +9295,11 @@
         <v>-3141624.508628615</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9600,17 +9328,11 @@
         <v>-3141624.508628615</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9639,17 +9361,11 @@
         <v>-3141624.508628615</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9715,17 +9427,11 @@
         <v>-3109501.345728615</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9754,17 +9460,11 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9793,17 +9493,11 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9832,17 +9526,11 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9871,17 +9559,11 @@
         <v>-3299174.053528615</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9914,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9951,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10025,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10062,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10099,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10136,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10169,17 +9823,11 @@
         <v>-3306208.685128615</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10208,17 +9856,11 @@
         <v>-3306208.685128615</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10251,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10288,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10325,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10399,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10436,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10473,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10510,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10547,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10584,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10621,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10658,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10695,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10732,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10769,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10806,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10843,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10880,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10917,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10954,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10991,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11028,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11065,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11098,15 +10648,11 @@
         <v>-2393673.781059905</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11135,15 +10681,11 @@
         <v>-2404471.173559905</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11172,15 +10714,11 @@
         <v>-2484912.027859906</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11209,15 +10747,11 @@
         <v>-2485018.827559906</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11246,15 +10780,11 @@
         <v>-2469086.616059905</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11283,15 +10813,11 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11320,15 +10846,11 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11357,15 +10879,11 @@
         <v>-2821302.937459906</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11394,15 +10912,11 @@
         <v>-2821128.961159905</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11435,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11472,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11509,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11546,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11583,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11620,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11657,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11694,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11731,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11768,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11805,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11842,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11879,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11916,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11953,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11990,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12027,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12064,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12101,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12138,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12175,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12212,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12249,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12286,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12323,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12360,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12471,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12508,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12545,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12582,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12619,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12693,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12730,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12767,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12804,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12841,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12878,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12915,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12952,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12989,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13137,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13174,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13211,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13248,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13285,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13322,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13359,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13396,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13433,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13470,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13507,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13540,15 +12826,11 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13577,15 +12859,11 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13614,15 +12892,11 @@
         <v>-2962159.635959907</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13651,15 +12925,11 @@
         <v>-2954900.508459907</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13692,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13729,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13766,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13803,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13840,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13877,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13914,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13951,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13988,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14025,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14062,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14099,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14136,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14169,17 +13387,11 @@
         <v>-3138897.278059906</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +13428,7 @@
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L395" t="n">
@@ -14559,11 +13771,9 @@
         <v>-3228919.229859906</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14598,11 +13808,9 @@
         <v>-3228919.229859906</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14637,11 +13845,9 @@
         <v>-3228919.229859906</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14867,11 +14073,9 @@
         <v>-3262457.591359906</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15179,11 +14383,9 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -15218,11 +14420,9 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -15664,11 +14864,9 @@
         <v>-3304518.755859907</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15703,11 +14901,9 @@
         <v>-3303932.755859907</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15742,11 +14938,9 @@
         <v>-3305005.942059907</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15781,11 +14975,9 @@
         <v>-3300005.942059907</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15820,11 +15012,9 @@
         <v>-3300005.942059907</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15896,11 +15086,9 @@
         <v>-3306846.347659907</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15935,11 +15123,9 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15974,11 +15160,9 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -16013,11 +15197,9 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -16052,11 +15234,9 @@
         <v>-3307802.287759907</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -16091,11 +15271,9 @@
         <v>-3320739.795759907</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16130,11 +15308,9 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -16169,11 +15345,9 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -16481,11 +15655,9 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -16520,11 +15692,9 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16598,11 +15768,9 @@
         <v>-3241345.237659907</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16637,11 +15805,9 @@
         <v>-3242401.062659907</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16676,11 +15842,9 @@
         <v>-3242753.805459907</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16754,11 +15918,9 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16793,11 +15955,9 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16832,11 +15992,9 @@
         <v>-3212678.232959908</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16871,11 +16029,9 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16910,11 +16066,9 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16949,11 +16103,9 @@
         <v>-3018759.139359908</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16988,11 +16140,9 @@
         <v>-3130986.425259908</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -17397,18 +16547,16 @@
         <v>-3141792.339559908</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
@@ -17434,15 +16582,11 @@
         <v>-3138708.106059908</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17475,11 +16619,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +16652,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17549,11 +16685,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17586,11 +16718,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17623,11 +16751,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17660,11 +16784,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17697,11 +16817,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17734,11 +16850,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17771,11 +16883,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17808,11 +16916,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17841,15 +16945,11 @@
         <v>-3400121.465459908</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17878,15 +16978,11 @@
         <v>-3387853.737959908</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17915,15 +17011,11 @@
         <v>-3300296.984759908</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17956,11 +17048,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17989,15 +17077,11 @@
         <v>-3398512.244659909</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18026,15 +17110,11 @@
         <v>-3398488.666659908</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18063,15 +17143,11 @@
         <v>-3421824.574359908</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18100,15 +17176,11 @@
         <v>-3472220.235959908</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18137,15 +17209,11 @@
         <v>-3403590.084859909</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18174,15 +17242,11 @@
         <v>-3403555.517059909</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18211,15 +17275,11 @@
         <v>-3404614.964359909</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18248,15 +17308,11 @@
         <v>-3404537.964359909</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18285,15 +17341,11 @@
         <v>-3402756.702659909</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18322,15 +17374,11 @@
         <v>-3402772.989359909</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18359,15 +17407,11 @@
         <v>-3406685.122959909</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18396,15 +17440,11 @@
         <v>-3479592.897959908</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18433,15 +17473,11 @@
         <v>-3450584.414159908</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18470,15 +17506,11 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18507,15 +17539,11 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18544,15 +17572,11 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18581,15 +17605,11 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18618,15 +17638,11 @@
         <v>-3683408.294559909</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18659,11 +17675,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18696,11 +17708,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +17741,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18770,11 +17774,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18803,15 +17803,11 @@
         <v>-3660303.557591802</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18844,11 +17840,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18877,15 +17869,11 @@
         <v>-3660345.950391802</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18918,11 +17906,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18955,11 +17939,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18992,11 +17972,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19025,17 +18001,11 @@
         <v>-3685878.205891802</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19064,17 +18034,11 @@
         <v>-3684712.639091802</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19103,17 +18067,11 @@
         <v>-3700478.865891802</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19146,11 +18104,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19183,11 +18137,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19220,11 +18170,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19257,11 +18203,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +18236,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19331,11 +18269,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19368,11 +18302,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19406,12 +18336,10 @@
       <c r="I532" t="n">
         <v>29.2</v>
       </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19440,15 +18368,15 @@
         <v>-4013809.910291801</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J533" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L533" t="n">
@@ -19484,10 +18412,12 @@
       <c r="I534" t="n">
         <v>29.1</v>
       </c>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L534" t="n">
@@ -19523,10 +18453,12 @@
       <c r="I535" t="n">
         <v>29.2</v>
       </c>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L535" t="n">
@@ -19562,7 +18494,9 @@
       <c r="I536" t="n">
         <v>28.8</v>
       </c>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19601,7 +18535,9 @@
       <c r="I537" t="n">
         <v>29.5</v>
       </c>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19640,7 +18576,9 @@
       <c r="I538" t="n">
         <v>29.4</v>
       </c>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19674,12 +18612,12 @@
         <v>-4172438.147091802</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19713,12 +18651,12 @@
         <v>-4156804.599391802</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J540" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19752,12 +18690,12 @@
         <v>-4156849.775091802</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,10 +18729,14 @@
         <v>-4156849.775091802</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J542" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19828,12 +18770,12 @@
         <v>-4161805.191491802</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19872,7 +18814,9 @@
       <c r="I544" t="n">
         <v>29.4</v>
       </c>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19906,12 +18850,12 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J545" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19950,7 +18894,9 @@
       <c r="I546" t="n">
         <v>29.7</v>
       </c>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19984,12 +18930,12 @@
         <v>-4188621.132891802</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20028,7 +18974,9 @@
       <c r="I548" t="n">
         <v>29.3</v>
       </c>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20065,7 +19013,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20102,7 +19052,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20139,7 +19091,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20176,7 +19130,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20213,7 +19169,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20250,7 +19208,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,7 +19247,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20324,7 +19286,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20361,7 +19325,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20395,12 +19361,12 @@
         <v>-4199472.889591802</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J558" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20434,12 +19400,12 @@
         <v>-4145245.493991802</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J559" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20473,12 +19439,12 @@
         <v>-4144071.143491802</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J560" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20515,7 +19481,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20552,7 +19520,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20589,7 +19559,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20626,7 +19598,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20660,12 +19634,12 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J565" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20699,12 +19673,12 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J566" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20738,12 +19712,12 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20777,12 +19751,12 @@
         <v>-4208392.138891802</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20816,12 +19790,12 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20858,7 +19832,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20895,7 +19871,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20932,7 +19910,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20969,7 +19949,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21006,7 +19988,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21043,7 +20027,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21080,7 +20066,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21117,7 +20105,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21154,7 +20144,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21191,7 +20183,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,7 +20222,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21265,7 +20261,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21302,7 +20300,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21339,7 +20339,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21373,12 +20375,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21412,12 +20414,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21451,12 +20453,12 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J586" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21495,7 +20497,9 @@
       <c r="I587" t="n">
         <v>29.6</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21534,7 +20538,9 @@
       <c r="I588" t="n">
         <v>29.6</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21573,7 +20579,9 @@
       <c r="I589" t="n">
         <v>29.6</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21612,7 +20620,9 @@
       <c r="I590" t="n">
         <v>29.6</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21651,7 +20661,9 @@
       <c r="I591" t="n">
         <v>29.6</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21690,7 +20702,9 @@
       <c r="I592" t="n">
         <v>29.6</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21724,10 +20738,14 @@
         <v>-4157088.259591802</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J593" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21761,10 +20779,14 @@
         <v>-4152251.780191802</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J594" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21798,10 +20820,14 @@
         <v>-4153924.387991802</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J595" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21835,10 +20861,14 @@
         <v>-4153267.800191802</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J596" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21872,10 +20902,14 @@
         <v>-4152944.243791802</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J597" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21909,10 +20943,14 @@
         <v>-4153267.800191802</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>30</v>
+      </c>
+      <c r="J598" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21946,10 +20984,14 @@
         <v>-4153267.800191802</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J599" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21983,10 +21025,14 @@
         <v>-4152444.403591802</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J600" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22020,10 +21066,14 @@
         <v>-4152444.403591802</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>30</v>
+      </c>
+      <c r="J601" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22057,10 +21107,14 @@
         <v>-4135987.459291802</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>30</v>
+      </c>
+      <c r="J602" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22094,10 +21148,14 @@
         <v>-4135987.459291802</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J603" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22131,10 +21189,14 @@
         <v>-4135987.459291802</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J604" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22171,7 +21233,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22208,7 +21272,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22245,7 +21311,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22282,7 +21350,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22319,7 +21389,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22356,7 +21428,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22368,6 +21442,6 @@
       <c r="M610" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest LBA.xlsx
+++ b/BackTest/2019-11-20 BackTest LBA.xlsx
@@ -451,7 +451,7 @@
         <v>-65142.18481346047</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-193374.1421134605</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-191750.8042134604</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-190351.2965134604</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-237719.3177134604</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-248131.0506134604</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-225937.0105134604</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-214618.2318134604</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-223121.6355134604</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-213123.3086002771</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-215561.7009002772</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-231989.3961002771</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-183881.8295002771</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-176840.1955002772</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-178955.4505002772</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1199.236700277164</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1058.190099722836</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-123397.0777002772</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-88469.37450027716</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-79863.93050027716</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-17383.79560027716</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-208638.0207002772</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-208339.6598002772</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-169427.0498002772</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-155650.5527002772</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-184390.0654002771</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-150961.8066002772</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-168853.5950002772</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>135193.2479997228</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2532.123200277158</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4173.623099722842</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-92070.73460027715</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-91305.60500027715</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-89792.34963403511</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-109792.3496340351</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-87812.7033340351</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-99556.3715340351</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-352493.8713340351</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-385219.0783455</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-386410.3584455</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-381393.4494455</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-384576.6517455</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-383076.6517455</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-366200.0372455</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>701571.1798429315</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>523531.7823429315</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>518194.0183429315</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>671735.6948429315</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>906265.2188917267</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1091354.389684848</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1318174.124688359</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1034279.88108836</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>637053.9177883596</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>384739.5078883596</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>298594.2110883596</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>64119.16208835959</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-162621.0939286162</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-435136.7698286162</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-531576.0037286162</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-432499.6061286161</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-868911.3584286161</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -9526,10 +9526,14 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J277" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
@@ -9559,11 +9563,19 @@
         <v>-3299174.053528615</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J278" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9607,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9646,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +9685,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9724,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9763,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +9802,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +9841,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +9880,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +9919,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +9997,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10036,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10075,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10114,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10153,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10192,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10231,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10270,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10309,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10348,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10387,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10426,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10465,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10504,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10543,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10582,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10621,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10660,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10699,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10738,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10777,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +10816,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10852,17 @@
         <v>-2393673.781059905</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10891,17 @@
         <v>-2404471.173559905</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10930,17 @@
         <v>-2484912.027859906</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10969,17 @@
         <v>-2485018.827559906</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +11008,17 @@
         <v>-2469086.616059905</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11047,17 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11086,17 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11125,17 @@
         <v>-2821302.937459906</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11164,17 @@
         <v>-2821128.961159905</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11206,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11245,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11284,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11323,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11362,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +11401,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11440,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11479,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11518,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11557,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11596,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11635,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11674,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11713,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11752,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11791,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +11830,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +11869,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +11908,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11947,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11986,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12025,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12064,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12103,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12142,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12181,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12220,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12259,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12298,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12337,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12376,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12415,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12454,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12493,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12532,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12571,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12610,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12649,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +12688,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12727,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12766,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +12805,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +12844,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +12883,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +12922,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +12961,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +13000,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +13039,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +13078,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +13117,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13195,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +13234,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13273,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +13312,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13351,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +13390,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +13426,17 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13465,17 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13504,17 @@
         <v>-2962159.635959907</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13543,17 @@
         <v>-2954900.508459907</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13585,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13624,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +13663,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13702,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13741,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13780,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13819,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13858,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +13897,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13936,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +13975,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +14014,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +14053,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +14092,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,15 +14128,15 @@
         <v>-3148735.238359906</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J395" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L395" t="n">
@@ -13459,12 +14167,12 @@
         <v>-3171279.390959906</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13498,12 +14206,12 @@
         <v>-3280024.276459906</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>29</v>
-      </c>
-      <c r="J397" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13537,12 +14245,12 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,12 +14284,12 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J399" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13615,12 +14323,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13654,12 +14362,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J401" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13693,12 +14401,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13732,12 +14440,12 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J403" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13774,7 +14482,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13811,7 +14521,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13848,7 +14560,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13885,7 +14599,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13922,7 +14638,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,12 +14674,12 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,12 +14713,12 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,12 +14752,12 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J411" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14076,7 +14794,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14110,12 +14830,12 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14149,12 +14869,12 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J414" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14188,12 +14908,12 @@
         <v>-3223926.616059906</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J415" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14227,12 +14947,12 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14266,12 +14986,12 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14305,12 +15025,12 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14344,12 +15064,12 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J419" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14386,7 +15106,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14423,7 +15145,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,7 +15184,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14497,7 +15223,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14534,7 +15262,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14571,7 +15301,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14608,7 +15340,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14645,7 +15379,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14682,7 +15418,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14719,7 +15457,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14756,7 +15496,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14793,7 +15535,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14830,7 +15574,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14867,7 +15613,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14904,7 +15652,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14941,7 +15691,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14978,7 +15730,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15015,7 +15769,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15052,7 +15808,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,7 +15847,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,7 +15886,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15163,7 +15925,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15200,7 +15964,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15237,7 +16003,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15271,10 +16039,14 @@
         <v>-3320739.795759907</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J444" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15308,10 +16080,14 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J445" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,10 +16121,14 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>29</v>
+      </c>
+      <c r="J446" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,7 +16167,9 @@
       <c r="I447" t="n">
         <v>29</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15426,7 +16208,9 @@
       <c r="I448" t="n">
         <v>29</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15465,7 +16249,9 @@
       <c r="I449" t="n">
         <v>29</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15504,7 +16290,9 @@
       <c r="I450" t="n">
         <v>29.2</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15543,7 +16331,9 @@
       <c r="I451" t="n">
         <v>29.1</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15582,7 +16372,9 @@
       <c r="I452" t="n">
         <v>29</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15621,7 +16413,9 @@
       <c r="I453" t="n">
         <v>29</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15655,10 +16449,14 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J454" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,10 +16490,14 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J455" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,7 +16536,9 @@
       <c r="I456" t="n">
         <v>29.2</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15768,10 +16572,14 @@
         <v>-3241345.237659907</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J457" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15805,10 +16613,14 @@
         <v>-3242401.062659907</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J458" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15842,10 +16654,14 @@
         <v>-3242753.805459907</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J459" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,7 +16700,9 @@
       <c r="I460" t="n">
         <v>29</v>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15918,10 +16736,14 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J461" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15955,10 +16777,14 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J462" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15992,10 +16818,14 @@
         <v>-3212678.232959908</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J463" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16029,10 +16859,14 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J464" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16069,7 +16903,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16103,10 +16939,14 @@
         <v>-3018759.139359908</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J466" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,7 +16983,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16180,7 +17022,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16217,7 +17061,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16254,7 +17100,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,7 +17139,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16328,7 +17178,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16365,7 +17217,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16402,7 +17256,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16439,7 +17295,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,7 +17334,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16513,7 +17373,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,16 +17409,20 @@
         <v>-3141792.339559908</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L478" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
       <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
@@ -16582,11 +17448,17 @@
         <v>-3138708.106059908</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16618,8 +17490,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16651,8 +17529,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16684,8 +17568,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16717,8 +17607,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16750,8 +17646,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16783,8 +17685,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16816,8 +17724,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16849,8 +17763,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16882,8 +17802,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16915,8 +17841,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16945,11 +17877,17 @@
         <v>-3400121.465459908</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +17916,17 @@
         <v>-3387853.737959908</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17011,11 +17955,17 @@
         <v>-3300296.984759908</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17047,8 +17997,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17077,11 +18033,17 @@
         <v>-3398512.244659909</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17110,11 +18072,17 @@
         <v>-3398488.666659908</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17143,11 +18111,17 @@
         <v>-3421824.574359908</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17176,11 +18150,17 @@
         <v>-3472220.235959908</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17209,11 +18189,17 @@
         <v>-3403590.084859909</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17242,11 +18228,17 @@
         <v>-3403555.517059909</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17275,11 +18267,17 @@
         <v>-3404614.964359909</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17308,11 +18306,17 @@
         <v>-3404537.964359909</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17341,11 +18345,17 @@
         <v>-3402756.702659909</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17374,11 +18384,17 @@
         <v>-3402772.989359909</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17407,11 +18423,17 @@
         <v>-3406685.122959909</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17440,11 +18462,17 @@
         <v>-3479592.897959908</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17473,11 +18501,17 @@
         <v>-3450584.414159908</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17506,11 +18540,17 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17539,11 +18579,17 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17572,11 +18618,17 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17605,11 +18657,17 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17638,11 +18696,17 @@
         <v>-3683408.294559909</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17674,8 +18738,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17707,8 +18777,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17740,8 +18816,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17773,8 +18855,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17803,11 +18891,17 @@
         <v>-3660303.557591802</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17839,8 +18933,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17869,11 +18969,17 @@
         <v>-3660345.950391802</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17905,8 +19011,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17938,8 +19050,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17971,8 +19089,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18004,8 +19128,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18037,8 +19167,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18070,8 +19206,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18103,8 +19245,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18136,8 +19284,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18169,8 +19323,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18202,8 +19362,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18235,8 +19401,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18268,8 +19440,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18301,8 +19479,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18331,15 +19515,17 @@
         <v>-4011911.697491801</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K532" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18372,11 +19558,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L533" t="n">
@@ -18407,17 +19593,15 @@
         <v>-4013497.258591801</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L534" t="n">
@@ -18448,17 +19632,15 @@
         <v>-4213497.506091801</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L535" t="n">
@@ -18489,13 +19671,11 @@
         <v>-4196529.637991802</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18530,13 +19710,11 @@
         <v>-4239844.533991802</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18571,13 +19749,11 @@
         <v>-4162191.476691802</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18616,7 +19792,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18655,7 +19831,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18694,7 +19870,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18729,13 +19905,11 @@
         <v>-4156849.775091802</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -18774,7 +19948,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -18809,13 +19983,11 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -18854,7 +20026,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -18889,13 +20061,11 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -18934,7 +20104,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -18969,13 +20139,11 @@
         <v>-4182040.581591802</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19014,7 +20182,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19053,7 +20221,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19092,7 +20260,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19131,7 +20299,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19170,7 +20338,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19209,7 +20377,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19248,7 +20416,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19287,7 +20455,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19326,7 +20494,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19365,7 +20533,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19400,11 +20568,13 @@
         <v>-4145245.493991802</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J559" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19443,7 +20613,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19482,7 +20652,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19521,7 +20691,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19560,7 +20730,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19599,7 +20769,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19634,11 +20804,13 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J565" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19673,11 +20845,13 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J566" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19712,11 +20886,13 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J567" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19751,11 +20927,13 @@
         <v>-4208392.138891802</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J568" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19790,11 +20968,13 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J569" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19829,11 +21009,13 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J570" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19868,11 +21050,13 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J571" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19907,11 +21091,13 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J572" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19946,11 +21132,13 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J573" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19985,11 +21173,13 @@
         <v>-4143783.952991802</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J574" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20024,11 +21214,13 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J575" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20063,11 +21255,13 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J576" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20102,11 +21296,13 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J577" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20141,11 +21337,13 @@
         <v>-4141583.952991802</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J578" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20180,11 +21378,13 @@
         <v>-4141583.952991802</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>30</v>
+      </c>
       <c r="J579" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20219,11 +21419,13 @@
         <v>-4136507.176091802</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>30</v>
+      </c>
       <c r="J580" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20258,11 +21460,13 @@
         <v>-4149798.378691802</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J581" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20297,11 +21501,13 @@
         <v>-4149798.378691802</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>30</v>
+      </c>
       <c r="J582" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20336,11 +21542,13 @@
         <v>-4163089.581291802</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>30</v>
+      </c>
       <c r="J583" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20375,11 +21583,13 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J584" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20414,11 +21624,13 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J585" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20453,11 +21665,13 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J586" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20498,7 +21712,7 @@
         <v>29.6</v>
       </c>
       <c r="J587" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20539,7 +21753,7 @@
         <v>29.6</v>
       </c>
       <c r="J588" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20580,7 +21794,7 @@
         <v>29.6</v>
       </c>
       <c r="J589" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20621,7 +21835,7 @@
         <v>29.6</v>
       </c>
       <c r="J590" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20662,7 +21876,7 @@
         <v>29.6</v>
       </c>
       <c r="J591" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20703,7 +21917,7 @@
         <v>29.6</v>
       </c>
       <c r="J592" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20744,7 +21958,7 @@
         <v>29.6</v>
       </c>
       <c r="J593" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20785,7 +21999,7 @@
         <v>29.8</v>
       </c>
       <c r="J594" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20826,7 +22040,7 @@
         <v>29.9</v>
       </c>
       <c r="J595" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20867,7 +22081,7 @@
         <v>29.8</v>
       </c>
       <c r="J596" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20908,7 +22122,7 @@
         <v>29.9</v>
       </c>
       <c r="J597" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20949,7 +22163,7 @@
         <v>30</v>
       </c>
       <c r="J598" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20990,7 +22204,7 @@
         <v>29.9</v>
       </c>
       <c r="J599" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21031,7 +22245,7 @@
         <v>29.9</v>
       </c>
       <c r="J600" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21072,7 +22286,7 @@
         <v>30</v>
       </c>
       <c r="J601" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21113,7 +22327,7 @@
         <v>30</v>
       </c>
       <c r="J602" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21154,7 +22368,7 @@
         <v>30.1</v>
       </c>
       <c r="J603" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21195,7 +22409,7 @@
         <v>30.1</v>
       </c>
       <c r="J604" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21230,11 +22444,13 @@
         <v>-4135967.459291802</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J605" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21269,11 +22485,13 @@
         <v>-4135967.459291802</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J606" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21308,11 +22526,13 @@
         <v>-4192005.459291802</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J607" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21347,11 +22567,13 @@
         <v>-4192005.459291802</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>30</v>
+      </c>
       <c r="J608" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21386,11 +22608,13 @@
         <v>-4192005.459291802</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>30</v>
+      </c>
       <c r="J609" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21425,11 +22649,13 @@
         <v>-4162905.459291802</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>30</v>
+      </c>
       <c r="J610" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
